--- a/DataFiles/CH 10/Nowlin.xlsx
+++ b/DataFiles/CH 10/Nowlin.xlsx
@@ -1,25 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike Fry\Dropbox\ASW Files\BusAnalytics (EBA)\EBA 2e\Second Pages\10_Ch10_Camm_Mike_Due_12_14\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andyconverse/Documents/Hamline Acedmics/Hamline 2024-25/Hamline Spring 25/QMBE 3730/QMBE_3730_Andy_Converse/Untitled/DataFiles/CH 10/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26D9292-25A7-634C-8A3F-C92B4038F69B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="17025" windowHeight="6540"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="38400" windowHeight="24000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>Nowlin Plastics</t>
   </si>
@@ -49,16 +64,38 @@
   </si>
   <si>
     <t>Parameters</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>one way data table</t>
+  </si>
+  <si>
+    <t>two way data table</t>
+  </si>
+  <si>
+    <t>chooses a range of decision variable(s) to tes</t>
+  </si>
+  <si>
+    <t>select the range for the output</t>
+  </si>
+  <si>
+    <t>data table -&gt; what if -&gt; data table</t>
+  </si>
+  <si>
+    <t>if one decision variable, input is columnwise. If two, both columnwise and rowwise</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -71,6 +108,12 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -105,18 +148,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -133,9 +179,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -173,9 +219,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -210,7 +256,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -245,7 +291,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -418,67 +464,321 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B17" sqref="A1:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1">
         <v>234000</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="1"/>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="6">
+        <f>B17</f>
+        <v>219000</v>
+      </c>
+      <c r="H4" s="1">
+        <f>B17</f>
+        <v>219000</v>
+      </c>
+      <c r="I4">
+        <v>2.89</v>
+      </c>
+      <c r="J4">
+        <v>3.13</v>
+      </c>
+      <c r="K4">
+        <v>3.5</v>
+      </c>
+      <c r="L4">
+        <v>3.54</v>
+      </c>
+      <c r="M4">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="1"/>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="dataTable" ref="E5:E17" dt2D="0" dtr="0" r1="B11" ca="1"/>
+        <v>234000</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f t="dataTable" ref="I5:M17" dt2D="1" dtr="1" r1="B7" r2="B11"/>
+        <v>234000</v>
+      </c>
+      <c r="J5">
+        <v>234000</v>
+      </c>
+      <c r="K5">
+        <v>234000</v>
+      </c>
+      <c r="L5">
+        <v>234000</v>
+      </c>
+      <c r="M5">
+        <v>234000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>25000</v>
+      </c>
+      <c r="E6" s="5">
+        <v>196500</v>
+      </c>
+      <c r="H6">
+        <v>25000</v>
+      </c>
+      <c r="I6">
+        <v>211750</v>
+      </c>
+      <c r="J6">
+        <v>205750</v>
+      </c>
+      <c r="K6">
+        <v>196500</v>
+      </c>
+      <c r="L6">
+        <v>195500</v>
+      </c>
+      <c r="M6">
+        <v>194250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="1"/>
+      <c r="D7">
+        <f>D6+25000</f>
+        <v>50000</v>
+      </c>
+      <c r="E7" s="5">
+        <v>159000</v>
+      </c>
+      <c r="H7">
+        <f>H6+25000</f>
+        <v>50000</v>
+      </c>
+      <c r="I7">
+        <v>189500</v>
+      </c>
+      <c r="J7">
+        <v>177500</v>
+      </c>
+      <c r="K7">
+        <v>159000</v>
+      </c>
+      <c r="L7">
+        <v>157000</v>
+      </c>
+      <c r="M7">
+        <v>154500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <f t="shared" ref="D8:D17" si="0">D7+25000</f>
+        <v>75000</v>
+      </c>
+      <c r="E8" s="5">
+        <v>121500</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ref="H8:H17" si="1">H7+25000</f>
+        <v>75000</v>
+      </c>
+      <c r="I8">
+        <v>167250</v>
+      </c>
+      <c r="J8">
+        <v>149250</v>
+      </c>
+      <c r="K8">
+        <v>121500</v>
+      </c>
+      <c r="L8">
+        <v>118500</v>
+      </c>
+      <c r="M8">
+        <v>114750</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+      <c r="E9" s="5">
+        <v>84000</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+      <c r="I9">
+        <v>145000</v>
+      </c>
+      <c r="J9">
+        <v>121000</v>
+      </c>
+      <c r="K9">
+        <v>84000</v>
+      </c>
+      <c r="L9">
+        <v>80000</v>
+      </c>
+      <c r="M9">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>125000</v>
+      </c>
+      <c r="E10" s="5">
+        <v>46500</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>125000</v>
+      </c>
+      <c r="I10">
+        <v>122750</v>
+      </c>
+      <c r="J10">
+        <v>92750</v>
+      </c>
+      <c r="K10">
+        <v>46500</v>
+      </c>
+      <c r="L10">
+        <v>41500</v>
+      </c>
+      <c r="M10">
+        <v>35250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="3">
         <v>10000</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="1"/>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>150000</v>
+      </c>
+      <c r="E11" s="5">
+        <v>9000</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>150000</v>
+      </c>
+      <c r="I11">
+        <v>100500</v>
+      </c>
+      <c r="J11">
+        <v>64500</v>
+      </c>
+      <c r="K11">
+        <v>9000</v>
+      </c>
+      <c r="L11">
+        <v>3000</v>
+      </c>
+      <c r="M11">
+        <v>-4500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>175000</v>
+      </c>
+      <c r="E12" s="5">
+        <v>-28500</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>175000</v>
+      </c>
+      <c r="I12">
+        <v>78250</v>
+      </c>
+      <c r="J12">
+        <v>36250</v>
+      </c>
+      <c r="K12">
+        <v>-28500</v>
+      </c>
+      <c r="L12">
+        <v>-35500</v>
+      </c>
+      <c r="M12">
+        <v>-44250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -486,11 +786,65 @@
         <f>B4+B11*B5</f>
         <v>254000</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="1"/>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>200000</v>
+      </c>
+      <c r="E13" s="5">
+        <v>-66000</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>200000</v>
+      </c>
+      <c r="I13">
+        <v>56000</v>
+      </c>
+      <c r="J13">
+        <v>8000</v>
+      </c>
+      <c r="K13">
+        <v>-66000</v>
+      </c>
+      <c r="L13">
+        <v>-74000</v>
+      </c>
+      <c r="M13">
+        <v>-84000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="1"/>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>225000</v>
+      </c>
+      <c r="E14" s="5">
+        <v>-103500</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>225000</v>
+      </c>
+      <c r="I14">
+        <v>33750</v>
+      </c>
+      <c r="J14">
+        <v>-20250</v>
+      </c>
+      <c r="K14">
+        <v>-103500</v>
+      </c>
+      <c r="L14">
+        <v>-112500</v>
+      </c>
+      <c r="M14">
+        <v>-123750</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -498,18 +852,229 @@
         <f>B7*B11</f>
         <v>35000</v>
       </c>
-      <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="1"/>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>250000</v>
+      </c>
+      <c r="E15" s="5">
+        <v>-141000</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>250000</v>
+      </c>
+      <c r="I15">
+        <v>11500</v>
+      </c>
+      <c r="J15">
+        <v>-48500</v>
+      </c>
+      <c r="K15">
+        <v>-141000</v>
+      </c>
+      <c r="L15">
+        <v>-151000</v>
+      </c>
+      <c r="M15">
+        <v>-163500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="1"/>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>275000</v>
+      </c>
+      <c r="E16" s="5">
+        <v>-178500</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>275000</v>
+      </c>
+      <c r="I16">
+        <v>-10750</v>
+      </c>
+      <c r="J16">
+        <v>-76750</v>
+      </c>
+      <c r="K16">
+        <v>-178500</v>
+      </c>
+      <c r="L16">
+        <v>-189500</v>
+      </c>
+      <c r="M16">
+        <v>-203250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="1">
         <f>B13-B15</f>
         <v>219000</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>300000</v>
+      </c>
+      <c r="E17" s="5">
+        <v>-216000</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>300000</v>
+      </c>
+      <c r="I17">
+        <v>-33000</v>
+      </c>
+      <c r="J17">
+        <v>-105000</v>
+      </c>
+      <c r="K17">
+        <v>-216000</v>
+      </c>
+      <c r="L17">
+        <v>-228000</v>
+      </c>
+      <c r="M17">
+        <v>-243000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BE2FD89-7161-8A4B-B63C-0584EC992D3C}">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>234000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3">
+        <v>156000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1">
+        <f>B4+B11*B5</f>
+        <v>546000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="4">
+        <f>B7*B11</f>
+        <v>546000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="1">
+        <f>B13-B15</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
